--- a/Doubles and Mix Medley template.xlsx
+++ b/Doubles and Mix Medley template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/364dfb6946e0cdcc/Documents/2025-DESKTOP-BP28OLH/Tennis/Summer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Github\Tennis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{FB45BFFC-41AD-4F19-B7A5-32038B176E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4E62A79-6860-498D-8EFC-78E3B769D7F6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661E5F7B-016F-4286-8577-FA053AF6E972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="637" xr2:uid="{3E647FD4-2191-4E82-A284-A4E7EDABFB33}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="31">
   <si>
     <t>1st pair names</t>
   </si>
@@ -132,12 +132,18 @@
   <si>
     <t>Match 6</t>
   </si>
+  <si>
+    <t>Time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +212,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -646,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -661,10 +675,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -693,6 +703,36 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -702,27 +742,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -732,36 +754,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -777,6 +769,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -798,49 +835,25 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -858,10 +871,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1165,11 +1174,9 @@
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1197,121 +1204,99 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C3" s="19"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D5" s="33" t="s">
+    <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="62"/>
+    </row>
+    <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D6" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="35"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D6" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="J6" s="41" t="s">
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="68"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="J7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-    </row>
-    <row r="7" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="R7" s="25" t="s">
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="R8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="S7" s="25"/>
-      <c r="U7" s="25" t="s">
+      <c r="S8" s="31"/>
+      <c r="U8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="V7" s="25"/>
-    </row>
-    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
+      <c r="V8" s="31"/>
     </row>
     <row r="9" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+    </row>
+    <row r="10" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="28"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="28"/>
-      <c r="R9">
-        <f>IF(OR(D9="-",G9="-"),0,IF(D9&gt;G9,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <f>IF(OR(J9="-",M9="-"),0,IF(J9&gt;M9,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <f>IF(OR(D9="-",G9="-"),0,IF(D9&lt;G9,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <f>IF(OR(J9="-",M9="-"),0,IF(J9&lt;M9,1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="27"/>
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
       <c r="R10">
         <f>IF(OR(D10="-",G10="-"),0,IF(D10&gt;G10,1,0))</f>
         <v>0</v>
@@ -1329,69 +1314,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="39"/>
-      <c r="B12" s="36" t="s">
+    <row r="11" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="64"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="27"/>
+      <c r="R11">
+        <f>IF(OR(D11="-",G11="-"),0,IF(D11&gt;G11,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f>IF(OR(J11="-",M11="-"),0,IF(J11&gt;M11,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f>IF(OR(D11="-",G11="-"),0,IF(D11&lt;G11,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f>IF(OR(J11="-",M11="-"),0,IF(J11&lt;M11,1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="64"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="64"/>
+      <c r="B13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="28"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12">
-        <f>IF(OR(D12="-",G12="-"),0,IF(D12&gt;G12,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f>IF(OR(J12="-",M12="-"),0,IF(J12&gt;M12,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <f>IF(OR(D12="-",G12="-"),0,IF(D12&lt;G12,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <f>IF(OR(J12="-",M12="-"),0,IF(J12&lt;M12,1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="40"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="27"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
       <c r="R13">
         <f>IF(OR(D13="-",G13="-"),0,IF(D13&gt;G13,1,0))</f>
         <v>0</v>
@@ -1409,99 +1394,130 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="65"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="27"/>
       <c r="R14">
-        <f>SUM(R9,R10,R12,R13)</f>
+        <f>IF(OR(D14="-",G14="-"),0,IF(D14&gt;G14,1,0))</f>
         <v>0</v>
       </c>
       <c r="S14">
-        <f>SUM(S9,S10,S12,S13)</f>
+        <f>IF(OR(J14="-",M14="-"),0,IF(J14&gt;M14,1,0))</f>
         <v>0</v>
       </c>
       <c r="U14">
-        <f>SUM(U9,U10,U12,U13)</f>
+        <f>IF(OR(D14="-",G14="-"),0,IF(D14&lt;G14,1,0))</f>
         <v>0</v>
       </c>
       <c r="V14">
-        <f>SUM(V9,V10,V12,V13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="21" x14ac:dyDescent="0.4">
-      <c r="D15" s="30" t="s">
+        <f>IF(OR(J14="-",M14="-"),0,IF(J14&lt;M14,1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R15">
+        <f>SUM(R10,R11,R13,R14)</f>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f>SUM(S10,S11,S13,S14)</f>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>SUM(U10,U11,U13,U14)</f>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f>SUM(V10,V11,V13,V14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="21" x14ac:dyDescent="0.4">
+      <c r="D16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="9">
-        <f>SUM(R14,S14)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15">
-        <f>SUM(D9,D10,D12,D13,J9,J10,J12,J13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D16" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="10">
-        <f>SUM(U14,V14)</f>
+      <c r="H16" s="7">
+        <f>SUM(R15,S15)</f>
         <v>0</v>
       </c>
       <c r="M16" t="s">
         <v>6</v>
       </c>
       <c r="N16">
-        <f>SUM(G9,G10,G12,G13,M9,M10,M12,M13)</f>
+        <f>SUM(D10,D11,D13,D14,J10,J11,J13,J14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D17" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="8">
+        <f>SUM(U15,V15)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <f>SUM(G10,G11,G13,G14,M10,M11,M13,M14)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D5:N5"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A10:A14"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="J8:N8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="J9:N9"/>
     <mergeCell ref="J10:K10"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="G14:H14"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
@@ -1514,11 +1530,9 @@
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1546,129 +1560,103 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C3" s="6"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D5" s="33" t="s">
+    <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="62"/>
+    </row>
+    <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D6" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="35"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D6" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="J6" s="41" t="s">
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="68"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="J7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-    </row>
-    <row r="7" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="R7" s="25" t="s">
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="R8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="S7" s="25"/>
-      <c r="U7" s="25" t="s">
+      <c r="S8" s="31"/>
+      <c r="U8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="V7" s="25"/>
-    </row>
-    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
+      <c r="V8" s="31"/>
     </row>
     <row r="9" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+    </row>
+    <row r="10" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="1" t="s">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="28"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="1" t="s">
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="28"/>
-      <c r="R9">
-        <f>IF(OR(D9="-",G9="-"),0,IF(D9&gt;G9,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <f>IF(OR(J9="-",M9="-"),0,IF(J9&gt;M9,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <f>IF(OR(D9="-",G9="-"),0,IF(D9&lt;G9,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <f>IF(OR(J9="-",M9="-"),0,IF(J9&lt;M9,1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="27"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
       <c r="R10">
         <f>IF(OR(D10="-",G10="-"),0,IF(D10&gt;G10,1,0))</f>
         <v>0</v>
@@ -1686,77 +1674,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="39"/>
-      <c r="B12" s="36" t="s">
+    <row r="11" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="64"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="27"/>
+      <c r="R11">
+        <f>IF(OR(D11="-",G11="-"),0,IF(D11&gt;G11,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f>IF(OR(J11="-",M11="-"),0,IF(J11&gt;M11,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f>IF(OR(D11="-",G11="-"),0,IF(D11&lt;G11,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f>IF(OR(J11="-",M11="-"),0,IF(J11&lt;M11,1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="64"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="64"/>
+      <c r="B13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="1" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="28"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="1" t="s">
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12">
-        <f>IF(OR(D12="-",G12="-"),0,IF(D12&gt;G12,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f>IF(OR(J12="-",M12="-"),0,IF(J12&gt;M12,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <f>IF(OR(D12="-",G12="-"),0,IF(D12&lt;G12,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <f>IF(OR(J12="-",M12="-"),0,IF(J12&lt;M12,1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="40"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13" s="26"/>
-      <c r="N13" s="27"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
       <c r="R13">
         <f>IF(OR(D13="-",G13="-"),0,IF(D13&gt;G13,1,0))</f>
         <v>0</v>
@@ -1774,99 +1762,134 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="65"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="26"/>
+      <c r="N14" s="27"/>
       <c r="R14">
-        <f>SUM(R9,R10,R12,R13)</f>
+        <f>IF(OR(D14="-",G14="-"),0,IF(D14&gt;G14,1,0))</f>
         <v>0</v>
       </c>
       <c r="S14">
-        <f>SUM(S9,S10,S12,S13)</f>
+        <f>IF(OR(J14="-",M14="-"),0,IF(J14&gt;M14,1,0))</f>
         <v>0</v>
       </c>
       <c r="U14">
-        <f>SUM(U9,U10,U12,U13)</f>
+        <f>IF(OR(D14="-",G14="-"),0,IF(D14&lt;G14,1,0))</f>
         <v>0</v>
       </c>
       <c r="V14">
-        <f>SUM(V9,V10,V12,V13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="21" x14ac:dyDescent="0.4">
-      <c r="D15" s="30" t="s">
+        <f>IF(OR(J14="-",M14="-"),0,IF(J14&lt;M14,1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R15">
+        <f>SUM(R10,R11,R13,R14)</f>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f>SUM(S10,S11,S13,S14)</f>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>SUM(U10,U11,U13,U14)</f>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f>SUM(V10,V11,V13,V14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="21" x14ac:dyDescent="0.4">
+      <c r="D16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="9">
-        <f>SUM(R14,S14)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15">
-        <f>SUM(D9,D10,D12,D13,J9,J10,J12,J13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D16" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="10">
-        <f>SUM(U14,V14)</f>
+      <c r="H16" s="7">
+        <f>SUM(R15,S15)</f>
         <v>0</v>
       </c>
       <c r="M16" t="s">
         <v>6</v>
       </c>
       <c r="N16">
-        <f>SUM(G9,G10,G12,G13,M9,M10,M12,M13)</f>
+        <f>SUM(D10,D11,D13,D14,J10,J11,J13,J14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D17" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="8">
+        <f>SUM(U15,V15)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <f>SUM(G10,G11,G13,G14,M10,M11,M13,M14)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D5:N5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="R7:S7"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="M10:N10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="J8:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
@@ -1878,11 +1901,9 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1909,132 +1930,103 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="19"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D5" s="33" t="s">
+      <c r="C3" s="62"/>
+    </row>
+    <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D6" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="35"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D6" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="J6" s="41" t="s">
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="68"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="J7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-    </row>
-    <row r="7" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="R7" s="25" t="s">
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="R8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="S7" s="25"/>
-      <c r="U7" s="25" t="s">
+      <c r="S8" s="31"/>
+      <c r="U8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="V7" s="25"/>
-    </row>
-    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
+      <c r="V8" s="31"/>
     </row>
     <row r="9" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+    </row>
+    <row r="10" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="1" t="s">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="28"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="1" t="s">
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="28"/>
-      <c r="R9">
-        <f>IF(OR(D9="-",G9="-"),0,IF(D9&gt;G9,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <f>IF(OR(J9="-",M9="-"),0,IF(J9&gt;M9,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <f>IF(OR(D9="-",G9="-"),0,IF(D9&lt;G9,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <f>IF(OR(J9="-",M9="-"),0,IF(J9&lt;M9,1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="27"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
       <c r="R10">
         <f>IF(OR(D10="-",G10="-"),0,IF(D10&gt;G10,1,0))</f>
         <v>0</v>
@@ -2052,77 +2044,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="39"/>
-      <c r="B12" s="36" t="s">
+    <row r="11" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="64"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="27"/>
+      <c r="R11">
+        <f>IF(OR(D11="-",G11="-"),0,IF(D11&gt;G11,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f>IF(OR(J11="-",M11="-"),0,IF(J11&gt;M11,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f>IF(OR(D11="-",G11="-"),0,IF(D11&lt;G11,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f>IF(OR(J11="-",M11="-"),0,IF(J11&lt;M11,1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="64"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="64"/>
+      <c r="B13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="1" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="28"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="1" t="s">
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12">
-        <f>IF(OR(D12="-",G12="-"),0,IF(D12&gt;G12,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f>IF(OR(J12="-",M12="-"),0,IF(J12&gt;M12,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <f>IF(OR(D12="-",G12="-"),0,IF(D12&lt;G12,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <f>IF(OR(J12="-",M12="-"),0,IF(J12&lt;M12,1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="40"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13" s="26"/>
-      <c r="N13" s="27"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
       <c r="R13">
         <f>IF(OR(D13="-",G13="-"),0,IF(D13&gt;G13,1,0))</f>
         <v>0</v>
@@ -2140,95 +2132,130 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="65"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="26"/>
+      <c r="N14" s="27"/>
       <c r="R14">
-        <f>SUM(R9,R10,R12,R13)</f>
+        <f>IF(OR(D14="-",G14="-"),0,IF(D14&gt;G14,1,0))</f>
         <v>0</v>
       </c>
       <c r="S14">
-        <f>SUM(S9,S10,S12,S13)</f>
+        <f>IF(OR(J14="-",M14="-"),0,IF(J14&gt;M14,1,0))</f>
         <v>0</v>
       </c>
       <c r="U14">
-        <f>SUM(U9,U10,U12,U13)</f>
+        <f>IF(OR(D14="-",G14="-"),0,IF(D14&lt;G14,1,0))</f>
         <v>0</v>
       </c>
       <c r="V14">
-        <f>SUM(V9,V10,V12,V13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="21" x14ac:dyDescent="0.3">
-      <c r="D15" s="45" t="s">
+        <f>IF(OR(J14="-",M14="-"),0,IF(J14&lt;M14,1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R15">
+        <f>SUM(R10,R11,R13,R14)</f>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f>SUM(S10,S11,S13,S14)</f>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>SUM(U10,U11,U13,U14)</f>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f>SUM(V10,V11,V13,V14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="21" x14ac:dyDescent="0.3">
+      <c r="D16" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="9">
-        <f>SUM(R14,S14)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15">
-        <f>SUM(D9,D10,D12,D13,J9,J10,J12,J13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="10">
-        <f>SUM(U14,V14)</f>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="7">
+        <f>SUM(R15,S15)</f>
         <v>0</v>
       </c>
       <c r="M16" t="s">
         <v>6</v>
       </c>
       <c r="N16">
-        <f>SUM(G9,G10,G12,G13,M9,M10,M12,M13)</f>
+        <f>SUM(D10,D11,D13,D14,J10,J11,J13,J14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="8">
+        <f>SUM(U15,V15)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <f>SUM(G10,G11,G13,G14,M10,M11,M13,M14)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D5:N5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="R7:S7"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="M10:N10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="J8:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2255,49 +2282,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15">
         <f>SUM(K3:P3)</f>
         <v>0</v>
       </c>
@@ -2327,14 +2354,14 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15">
         <f t="shared" ref="H4:H10" si="1">SUM(K4:P4)</f>
         <v>0</v>
       </c>
@@ -2364,14 +2391,14 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2401,14 +2428,14 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2438,14 +2465,14 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2475,14 +2502,14 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2512,14 +2539,14 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2549,14 +2576,14 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2598,11 +2625,9 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2629,132 +2654,103 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D5" s="33" t="s">
+      <c r="C3" s="62"/>
+    </row>
+    <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D6" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="35"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D6" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="J6" s="41" t="s">
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="68"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="J7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-    </row>
-    <row r="7" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="R7" s="25" t="s">
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="R8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="S7" s="25"/>
-      <c r="U7" s="25" t="s">
+      <c r="S8" s="31"/>
+      <c r="U8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="V7" s="25"/>
-    </row>
-    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
+      <c r="V8" s="31"/>
     </row>
     <row r="9" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+    </row>
+    <row r="10" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="1" t="s">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="28"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="1" t="s">
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="28"/>
-      <c r="R9">
-        <f>IF(OR(D9="-",G9="-"),0,IF(D9&gt;G9,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <f>IF(OR(J9="-",M9="-"),0,IF(J9&gt;M9,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <f>IF(OR(D9="-",G9="-"),0,IF(D9&lt;G9,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <f>IF(OR(J9="-",M9="-"),0,IF(J9&lt;M9,1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="27"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
       <c r="R10">
         <f>IF(OR(D10="-",G10="-"),0,IF(D10&gt;G10,1,0))</f>
         <v>0</v>
@@ -2772,77 +2768,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="39"/>
-      <c r="B12" s="36" t="s">
+    <row r="11" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="64"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="27"/>
+      <c r="R11">
+        <f>IF(OR(D11="-",G11="-"),0,IF(D11&gt;G11,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f>IF(OR(J11="-",M11="-"),0,IF(J11&gt;M11,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f>IF(OR(D11="-",G11="-"),0,IF(D11&lt;G11,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f>IF(OR(J11="-",M11="-"),0,IF(J11&lt;M11,1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="64"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="64"/>
+      <c r="B13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="1" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="28"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="1" t="s">
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12">
-        <f>IF(OR(D12="-",G12="-"),0,IF(D12&gt;G12,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f>IF(OR(J12="-",M12="-"),0,IF(J12&gt;M12,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <f>IF(OR(D12="-",G12="-"),0,IF(D12&lt;G12,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <f>IF(OR(J12="-",M12="-"),0,IF(J12&lt;M12,1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="40"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13" s="26"/>
-      <c r="N13" s="27"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
       <c r="R13">
         <f>IF(OR(D13="-",G13="-"),0,IF(D13&gt;G13,1,0))</f>
         <v>0</v>
@@ -2860,95 +2856,130 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="65"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="26"/>
+      <c r="N14" s="27"/>
       <c r="R14">
-        <f>SUM(R9,R10,R12,R13)</f>
+        <f>IF(OR(D14="-",G14="-"),0,IF(D14&gt;G14,1,0))</f>
         <v>0</v>
       </c>
       <c r="S14">
-        <f>SUM(S9,S10,S12,S13)</f>
+        <f>IF(OR(J14="-",M14="-"),0,IF(J14&gt;M14,1,0))</f>
         <v>0</v>
       </c>
       <c r="U14">
-        <f>SUM(U9,U10,U12,U13)</f>
+        <f>IF(OR(D14="-",G14="-"),0,IF(D14&lt;G14,1,0))</f>
         <v>0</v>
       </c>
       <c r="V14">
-        <f>SUM(V9,V10,V12,V13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="21" x14ac:dyDescent="0.3">
-      <c r="D15" s="45" t="s">
+        <f>IF(OR(J14="-",M14="-"),0,IF(J14&lt;M14,1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R15">
+        <f>SUM(R10,R11,R13,R14)</f>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f>SUM(S10,S11,S13,S14)</f>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>SUM(U10,U11,U13,U14)</f>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f>SUM(V10,V11,V13,V14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="21" x14ac:dyDescent="0.3">
+      <c r="D16" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="9">
-        <f>SUM(R14,S14)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15">
-        <f>SUM(D9,D10,D12,D13,J9,J10,J12,J13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="10">
-        <f>SUM(U14,V14)</f>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="7">
+        <f>SUM(R15,S15)</f>
         <v>0</v>
       </c>
       <c r="M16" t="s">
         <v>6</v>
       </c>
       <c r="N16">
-        <f>SUM(G9,G10,G12,G13,M9,M10,M12,M13)</f>
+        <f>SUM(D10,D11,D13,D14,J10,J11,J13,J14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="8">
+        <f>SUM(U15,V15)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <f>SUM(G10,G11,G13,G14,M10,M11,M13,M14)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D5:N5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="J7:N7"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="J8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2959,7 +2990,7 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -2991,132 +3022,105 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D5" s="33" t="s">
+      <c r="C3" s="62"/>
+    </row>
+    <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D6" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="35"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D6" s="41" t="s">
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="68"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="J6" s="41" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="J7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-    </row>
-    <row r="7" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="55" t="s">
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="R7" s="25" t="s">
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="R8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="S7" s="25"/>
-      <c r="U7" s="25" t="s">
+      <c r="S8" s="31"/>
+      <c r="U8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="V7" s="25"/>
-    </row>
-    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="56"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
+      <c r="V8" s="31"/>
     </row>
     <row r="9" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="C9" s="54"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+    </row>
+    <row r="10" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="1" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="58"/>
-      <c r="R9">
-        <f>IF(OR(D9="-",G9="-"),0,IF(D9&gt;G9,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <f>IF(OR(J9="-",M9="-"),0,IF(J9&gt;M9,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <f>IF(OR(D9="-",G9="-"),0,IF(D9&lt;G9,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <f>IF(OR(J9="-",M9="-"),0,IF(J9&lt;M9,1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="65"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="46"/>
       <c r="R10">
         <f>IF(OR(D10="-",G10="-"),0,IF(D10&gt;G10,1,0))</f>
         <v>0</v>
@@ -3134,73 +3138,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="36" t="s">
+    <row r="11" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="64"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="52"/>
+      <c r="R11">
+        <f>IF(OR(D11="-",G11="-"),0,IF(D11&gt;G11,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f>IF(OR(J11="-",M11="-"),0,IF(J11&gt;M11,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f>IF(OR(D11="-",G11="-"),0,IF(D11&lt;G11,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f>IF(OR(J11="-",M11="-"),0,IF(J11&lt;M11,1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="64"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="64"/>
+      <c r="B13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="1" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12">
-        <f>IF(OR(D12="-",G12="-"),0,IF(D12&gt;G12,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f>IF(OR(J12="-",M12="-"),0,IF(J12&gt;M12,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <f>IF(OR(D12="-",G12="-"),0,IF(D12&lt;G12,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <f>IF(OR(J12="-",M12="-"),0,IF(J12&lt;M12,1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13" s="67"/>
-      <c r="N13" s="68"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
       <c r="R13">
         <f>IF(OR(D13="-",G13="-"),0,IF(D13&gt;G13,1,0))</f>
         <v>0</v>
@@ -3218,184 +3222,184 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="65"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="48"/>
+      <c r="N14" s="49"/>
       <c r="R14">
-        <f>SUM(R9,R10,R12,R13)</f>
+        <f>IF(OR(D14="-",G14="-"),0,IF(D14&gt;G14,1,0))</f>
         <v>0</v>
       </c>
       <c r="S14">
-        <f>SUM(S9,S10,S12,S13)</f>
+        <f>IF(OR(J14="-",M14="-"),0,IF(J14&gt;M14,1,0))</f>
         <v>0</v>
       </c>
       <c r="U14">
-        <f>SUM(U9,U10,U12,U13)</f>
+        <f>IF(OR(D14="-",G14="-"),0,IF(D14&lt;G14,1,0))</f>
         <v>0</v>
       </c>
       <c r="V14">
-        <f>SUM(V9,V10,V12,V13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="25" t="s">
+        <f>IF(OR(J14="-",M14="-"),0,IF(J14&lt;M14,1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R15">
+        <f>SUM(R10,R11,R13,R14)</f>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f>SUM(S10,S11,S13,S14)</f>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>SUM(U10,U11,U13,U14)</f>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f>SUM(V10,V11,V13,V14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="G15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <f>SUM(R14,S14)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15">
-        <f>SUM(D9,D10,D12,D13,J9,J10,J12,J13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="25"/>
+      <c r="E16" s="31"/>
       <c r="G16" t="s">
         <v>5</v>
       </c>
       <c r="H16">
-        <f>SUM(U14,V14)</f>
+        <f>SUM(R15,S15)</f>
         <v>0</v>
       </c>
       <c r="M16" t="s">
         <v>6</v>
       </c>
       <c r="N16">
-        <f>SUM(G9,G10,G12,G13,M9,M10,M12,M13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D18" s="33" t="s">
+        <f>SUM(D10,D11,D13,D14,J10,J11,J13,J14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <f>SUM(U15,V15)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <f>SUM(G10,G11,G13,G14,M10,M11,M13,M14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D19" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="35"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D19" s="41" t="s">
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="68"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D20" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="J19" s="41" t="s">
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="J20" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-    </row>
-    <row r="20" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="55" t="s">
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+    </row>
+    <row r="21" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="R20" s="25" t="s">
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="R21" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="S20" s="25"/>
-      <c r="U20" s="25" t="s">
+      <c r="S21" s="31"/>
+      <c r="U21" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="V20" s="25"/>
-    </row>
-    <row r="21" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="56"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
+      <c r="V21" s="31"/>
     </row>
     <row r="22" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38" t="s">
+      <c r="C22" s="54"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+    </row>
+    <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="1" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="61"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="58"/>
-      <c r="R22">
-        <f>IF(OR(D22="-",G22="-"),0,IF(D22&gt;G22,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <f>IF(OR(J22="-",M22="-"),0,IF(J22&gt;M22,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <f>IF(OR(D22="-",G22="-"),0,IF(D22&lt;G22,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <f>IF(OR(J22="-",M22="-"),0,IF(J22&lt;M22,1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="68"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="65"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="46"/>
       <c r="R23">
         <f>IF(OR(D23="-",G23="-"),0,IF(D23&gt;G23,1,0))</f>
         <v>0</v>
@@ -3413,73 +3417,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="39"/>
-      <c r="B25" s="36" t="s">
+    <row r="24" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="64"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="48"/>
+      <c r="H24" s="49"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="52"/>
+      <c r="R24">
+        <f>IF(OR(D24="-",G24="-"),0,IF(D24&gt;G24,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f>IF(OR(J24="-",M24="-"),0,IF(J24&gt;M24,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f>IF(OR(D24="-",G24="-"),0,IF(D24&lt;G24,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f>IF(OR(J24="-",M24="-"),0,IF(J24&lt;M24,1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="64"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="64"/>
+      <c r="B26" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="58"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="1" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M25" s="60"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25">
-        <f>IF(OR(D25="-",G25="-"),0,IF(D25&gt;G25,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <f>IF(OR(J25="-",M25="-"),0,IF(J25&gt;M25,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <f>IF(OR(D25="-",G25="-"),0,IF(D25&lt;G25,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <f>IF(OR(J25="-",M25="-"),0,IF(J25&lt;M25,1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="65"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M26" s="67"/>
-      <c r="N26" s="68"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
       <c r="R26">
         <f>IF(OR(D26="-",G26="-"),0,IF(D26&gt;G26,1,0))</f>
         <v>0</v>
@@ -3497,195 +3501,228 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="65"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="52"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="48"/>
+      <c r="N27" s="49"/>
       <c r="R27">
-        <f>SUM(R22,R23,R25,R26)</f>
+        <f>IF(OR(D27="-",G27="-"),0,IF(D27&gt;G27,1,0))</f>
         <v>0</v>
       </c>
       <c r="S27">
-        <f>SUM(S22,S23,S25,S26)</f>
+        <f>IF(OR(J27="-",M27="-"),0,IF(J27&gt;M27,1,0))</f>
         <v>0</v>
       </c>
       <c r="U27">
-        <f>SUM(U22,U23,U25,U26)</f>
+        <f>IF(OR(D27="-",G27="-"),0,IF(D27&lt;G27,1,0))</f>
         <v>0</v>
       </c>
       <c r="V27">
-        <f>SUM(V22,V23,V25,V26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="25" t="s">
+        <f>IF(OR(J27="-",M27="-"),0,IF(J27&lt;M27,1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R28">
+        <f>SUM(R23,R24,R26,R27)</f>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f>SUM(S23,S24,S26,S27)</f>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f>SUM(U23,U24,U26,U27)</f>
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <f>SUM(V23,V24,V26,V27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="G28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28">
-        <f>SUM(R27,S27)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" t="s">
-        <v>6</v>
-      </c>
-      <c r="N28">
-        <f>SUM(D22,D23,D25,D26,J22,J23,J25,J26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="25"/>
+      <c r="E29" s="31"/>
       <c r="G29" t="s">
         <v>5</v>
       </c>
       <c r="H29">
-        <f>SUM(U27,V27)</f>
+        <f>SUM(R28,S28)</f>
         <v>0</v>
       </c>
       <c r="M29" t="s">
         <v>6</v>
       </c>
       <c r="N29">
-        <f>SUM(G22,G23,G25,G26,M22,M23,M25,M26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D31" s="52" t="s">
+        <f>SUM(D23,D24,D26,D27,J23,J24,J26,J27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <f>SUM(U28,V28)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N30">
+        <f>SUM(G23,G24,G26,G27,M23,M24,M26,M27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D32" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-    </row>
-    <row r="32" spans="1:22" ht="21" x14ac:dyDescent="0.4">
-      <c r="D32" s="48" t="s">
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="4:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="D33" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="15">
-        <f>H15+H28</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="11" t="s">
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="13">
+        <f>H16+H29</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N32" s="11">
-        <f>N15+N28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="4:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D33" s="50" t="s">
+      <c r="N33" s="9">
+        <f>N16+N29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D34" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="16">
-        <f>H16+H29</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="11" t="s">
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="14">
+        <f>H17+H30</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N33" s="11">
-        <f>N16+N29</f>
+      <c r="N34" s="9">
+        <f>N17+N30</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="D5:N5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="D19:N19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="J21:N21"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="M23:N23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="B26:B27"/>
     <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="D18:N18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="J8:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
